--- a/Results/Categorization/lda.xlsx
+++ b/Results/Categorization/lda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="1811">
   <si>
     <t>id</t>
   </si>
@@ -4030,132 +4030,138 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+    <t>FOOD|PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4171,10 +4177,10 @@
     <t>SERVICE|PRICES|PRICES|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
@@ -4189,235 +4195,235 @@
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|PRICES|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|PRICES|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|PRICES|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD</t>
+    <t>SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
@@ -5847,10 +5853,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="H2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5873,10 +5879,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="H3" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5899,10 +5905,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="H4" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5922,7 +5928,7 @@
         <v>1276</v>
       </c>
       <c r="H5" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5945,10 +5951,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="H6" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5971,10 +5977,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H7" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5997,10 +6003,10 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="H8" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6023,10 +6029,10 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="H9" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6049,10 +6055,10 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="H10" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6075,10 +6081,10 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="H11" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6101,10 +6107,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="H12" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6127,10 +6133,10 @@
         <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="H13" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6150,13 +6156,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="G14" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="H14" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6176,7 +6182,7 @@
         <v>1276</v>
       </c>
       <c r="H15" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6202,7 +6208,7 @@
         <v>1093</v>
       </c>
       <c r="H16" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6222,13 +6228,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="H17" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6248,13 +6254,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="H18" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6274,13 +6280,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G19" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H19" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6303,10 +6309,10 @@
         <v>1337</v>
       </c>
       <c r="G20" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="H20" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6326,13 +6332,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G21" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H21" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6352,7 +6358,7 @@
         <v>1284</v>
       </c>
       <c r="H22" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6378,7 +6384,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6404,7 +6410,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6424,13 +6430,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="H25" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6453,10 +6459,10 @@
         <v>1337</v>
       </c>
       <c r="G26" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H26" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6482,7 +6488,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6502,13 +6508,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G28" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="H28" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6531,10 +6537,10 @@
         <v>1337</v>
       </c>
       <c r="G29" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="H29" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6554,13 +6560,13 @@
         <v>1277</v>
       </c>
       <c r="F30" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G30" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="H30" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6580,13 +6586,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H31" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6609,10 +6615,10 @@
         <v>1342</v>
       </c>
       <c r="G32" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H32" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6632,13 +6638,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G33" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H33" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6661,10 +6667,10 @@
         <v>1337</v>
       </c>
       <c r="G34" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="H34" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6687,10 +6693,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H35" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6710,13 +6716,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G36" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H36" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6736,13 +6742,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G37" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="H37" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6768,7 +6774,7 @@
         <v>952</v>
       </c>
       <c r="H38" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6788,7 +6794,7 @@
         <v>1275</v>
       </c>
       <c r="H39" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6808,13 +6814,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G40" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="H40" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6834,13 +6840,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G41" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="H41" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6860,13 +6866,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G42" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H42" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6886,13 +6892,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G43" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="H43" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6915,10 +6921,10 @@
         <v>1277</v>
       </c>
       <c r="G44" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H44" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6938,7 +6944,7 @@
         <v>1284</v>
       </c>
       <c r="H45" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6958,13 +6964,13 @@
         <v>1284</v>
       </c>
       <c r="F46" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G46" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="H46" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6990,7 +6996,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7016,7 +7022,7 @@
         <v>937</v>
       </c>
       <c r="H48" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7039,10 +7045,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="H49" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7062,13 +7068,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G50" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H50" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7091,10 +7097,10 @@
         <v>1337</v>
       </c>
       <c r="G51" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="H51" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7114,7 +7120,7 @@
         <v>1277</v>
       </c>
       <c r="H52" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7134,13 +7140,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G53" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="H53" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7163,10 +7169,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="H54" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7189,10 +7195,10 @@
         <v>1277</v>
       </c>
       <c r="G55" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H55" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7215,10 +7221,10 @@
         <v>1277</v>
       </c>
       <c r="G56" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="H56" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7238,13 +7244,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="G57" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H57" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7264,13 +7270,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G58" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="H58" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7293,10 +7299,10 @@
         <v>1275</v>
       </c>
       <c r="G59" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H59" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7316,13 +7322,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G60" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="H60" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7342,13 +7348,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="G61" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H61" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7368,7 +7374,7 @@
         <v>1275</v>
       </c>
       <c r="H62" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7391,10 +7397,10 @@
         <v>1337</v>
       </c>
       <c r="G63" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H63" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7414,13 +7420,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="G64" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H64" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7440,13 +7446,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G65" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="H65" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7469,10 +7475,10 @@
         <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="H66" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7492,13 +7498,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G67" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H67" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7518,13 +7524,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G68" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="H68" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7547,10 +7553,10 @@
         <v>1277</v>
       </c>
       <c r="G69" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H69" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7570,7 +7576,7 @@
         <v>1293</v>
       </c>
       <c r="H70" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7590,7 +7596,7 @@
         <v>1294</v>
       </c>
       <c r="H71" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7610,13 +7616,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G72" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="H72" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7639,10 +7645,10 @@
         <v>1337</v>
       </c>
       <c r="G73" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H73" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7662,13 +7668,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G74" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="H74" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7688,13 +7694,13 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="G75" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="H75" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7717,10 +7723,10 @@
         <v>1342</v>
       </c>
       <c r="G76" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H76" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7740,7 +7746,7 @@
         <v>1275</v>
       </c>
       <c r="H77" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7760,7 +7766,7 @@
         <v>1284</v>
       </c>
       <c r="H78" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7786,7 +7792,7 @@
         <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7806,13 +7812,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G80" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="H80" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7835,10 +7841,10 @@
         <v>1277</v>
       </c>
       <c r="G81" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="H81" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7858,13 +7864,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G82" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="H82" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7887,10 +7893,10 @@
         <v>1337</v>
       </c>
       <c r="G83" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="H83" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7910,13 +7916,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="G84" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="H84" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7942,7 +7948,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7968,7 +7974,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7988,13 +7994,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G87" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="H87" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8017,10 +8023,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="H88" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>1284</v>
       </c>
       <c r="H89" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8063,10 +8069,10 @@
         <v>1342</v>
       </c>
       <c r="G90" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H90" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8086,13 +8092,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="G91" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="H91" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8112,13 +8118,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="G92" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H92" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8138,13 +8144,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="G93" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="H93" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8167,10 +8173,10 @@
         <v>1337</v>
       </c>
       <c r="G94" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="H94" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8193,10 +8199,10 @@
         <v>1337</v>
       </c>
       <c r="G95" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="H95" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8216,13 +8222,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="G96" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="H96" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8242,13 +8248,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="G97" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H97" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8268,13 +8274,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G98" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="H98" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8297,10 +8303,10 @@
         <v>1337</v>
       </c>
       <c r="G99" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="H99" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8323,10 +8329,10 @@
         <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H100" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8346,13 +8352,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G101" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H101" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8372,13 +8378,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G102" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="H102" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8401,10 +8407,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="H103" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8424,13 +8430,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G104" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="H104" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8453,10 +8459,10 @@
         <v>1277</v>
       </c>
       <c r="G105" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="H105" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8476,13 +8482,13 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G106" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="H106" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8502,13 +8508,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="G107" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="H107" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8528,7 +8534,7 @@
         <v>1275</v>
       </c>
       <c r="H108" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8548,13 +8554,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G109" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="H109" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8574,13 +8580,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G110" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="H110" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8600,13 +8606,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G111" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H111" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8626,13 +8632,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G112" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="H112" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8652,13 +8658,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H113" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8681,10 +8687,10 @@
         <v>1337</v>
       </c>
       <c r="G114" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="H114" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8704,13 +8710,13 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G115" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="H115" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8730,13 +8736,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G116" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="H116" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8762,7 +8768,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8782,13 +8788,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G118" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="H118" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8811,10 +8817,10 @@
         <v>1337</v>
       </c>
       <c r="G119" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="H119" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8837,10 +8843,10 @@
         <v>1337</v>
       </c>
       <c r="G120" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="H120" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8863,10 +8869,10 @@
         <v>1293</v>
       </c>
       <c r="G121" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="H121" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8889,10 +8895,10 @@
         <v>1337</v>
       </c>
       <c r="G122" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="H122" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8915,10 +8921,10 @@
         <v>1337</v>
       </c>
       <c r="G123" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="H123" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8941,10 +8947,10 @@
         <v>1342</v>
       </c>
       <c r="G124" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="H124" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8964,7 +8970,7 @@
         <v>1275</v>
       </c>
       <c r="H125" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8990,7 +8996,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9010,13 +9016,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="H127" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9039,10 +9045,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="H128" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9068,7 +9074,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9088,13 +9094,13 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G130" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="H130" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9114,13 +9120,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G131" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="H131" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9140,13 +9146,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1353</v>
+        <v>1381</v>
       </c>
       <c r="G132" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="H132" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9166,13 +9172,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G133" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="H133" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9192,13 +9198,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="G134" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="H134" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9218,13 +9224,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G135" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="H135" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9244,13 +9250,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G136" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="H136" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9270,13 +9276,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1353</v>
+        <v>1381</v>
       </c>
       <c r="G137" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="H137" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9296,13 +9302,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G138" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="H138" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9322,13 +9328,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="G139" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="H139" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9351,10 +9357,10 @@
         <v>1277</v>
       </c>
       <c r="G140" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="H140" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9374,13 +9380,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="G141" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="H141" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9400,13 +9406,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G142" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="H142" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9426,13 +9432,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G143" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="H143" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9452,13 +9458,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G144" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="H144" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9478,13 +9484,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G145" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="H145" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9504,7 +9510,7 @@
         <v>1277</v>
       </c>
       <c r="H146" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9527,10 +9533,10 @@
         <v>1277</v>
       </c>
       <c r="G147" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="H147" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9553,10 +9559,10 @@
         <v>1342</v>
       </c>
       <c r="G148" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H148" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9576,13 +9582,13 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G149" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="H149" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9602,7 +9608,7 @@
         <v>1281</v>
       </c>
       <c r="H150" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9622,13 +9628,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G151" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="H151" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9648,7 +9654,7 @@
         <v>1275</v>
       </c>
       <c r="H152" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9671,10 +9677,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="H153" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9697,10 +9703,10 @@
         <v>1277</v>
       </c>
       <c r="G154" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="H154" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9720,13 +9726,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G155" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="H155" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9746,13 +9752,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G156" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="H156" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9772,13 +9778,13 @@
         <v>1276</v>
       </c>
       <c r="F157" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G157" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="H157" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9798,13 +9804,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G158" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="H158" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9824,13 +9830,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1353</v>
+        <v>1381</v>
       </c>
       <c r="G159" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="H159" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9850,7 +9856,7 @@
         <v>1277</v>
       </c>
       <c r="H160" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9870,13 +9876,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G161" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="H161" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9899,10 +9905,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="H162" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9922,13 +9928,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="G163" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="H163" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9948,13 +9954,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="G164" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="H164" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9974,13 +9980,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G165" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="H165" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10000,7 +10006,7 @@
         <v>1277</v>
       </c>
       <c r="H166" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10020,13 +10026,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G167" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="H167" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10046,7 +10052,7 @@
         <v>1277</v>
       </c>
       <c r="H168" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10069,10 +10075,10 @@
         <v>1337</v>
       </c>
       <c r="G169" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="H169" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10092,13 +10098,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G170" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="H170" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10121,10 +10127,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="H171" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10144,13 +10150,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G172" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="H172" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10170,13 +10176,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G173" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="H173" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10196,13 +10202,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G174" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="H174" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10222,13 +10228,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G175" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="H175" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10251,10 +10257,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H176" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10274,7 +10280,7 @@
         <v>1276</v>
       </c>
       <c r="H177" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10297,10 +10303,10 @@
         <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="H178" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10323,10 +10329,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="H179" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10346,13 +10352,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G180" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="H180" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10372,13 +10378,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1391</v>
+        <v>1346</v>
       </c>
       <c r="G181" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="H181" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10398,13 +10404,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G182" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="H182" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10424,13 +10430,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G183" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="H183" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10450,13 +10456,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G184" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="H184" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10476,13 +10482,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G185" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="H185" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10505,10 +10511,10 @@
         <v>1277</v>
       </c>
       <c r="G186" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="H186" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10528,7 +10534,7 @@
         <v>1277</v>
       </c>
       <c r="H187" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10551,10 +10557,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="H188" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10574,13 +10580,13 @@
         <v>1277</v>
       </c>
       <c r="F189" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G189" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="H189" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10600,13 +10606,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G190" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="H190" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10632,7 +10638,7 @@
         <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10652,13 +10658,13 @@
         <v>1277</v>
       </c>
       <c r="F192" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G192" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="H192" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10681,10 +10687,10 @@
         <v>1277</v>
       </c>
       <c r="G193" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="H193" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10710,7 +10716,7 @@
         <v>952</v>
       </c>
       <c r="H194" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10736,7 +10742,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10756,13 +10762,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G196" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="H196" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10785,10 +10791,10 @@
         <v>1395</v>
       </c>
       <c r="G197" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="H197" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10811,10 +10817,10 @@
         <v>1396</v>
       </c>
       <c r="G198" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="H198" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10834,7 +10840,7 @@
         <v>1277</v>
       </c>
       <c r="H199" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10860,7 +10866,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10883,10 +10889,10 @@
         <v>1284</v>
       </c>
       <c r="G201" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H201" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10912,7 +10918,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10935,10 +10941,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="H203" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10958,13 +10964,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G204" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="H204" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10984,13 +10990,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G205" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="H205" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11010,13 +11016,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G206" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="H206" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11039,10 +11045,10 @@
         <v>1397</v>
       </c>
       <c r="G207" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="H207" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11065,10 +11071,10 @@
         <v>1398</v>
       </c>
       <c r="G208" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="H208" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11091,10 +11097,10 @@
         <v>1399</v>
       </c>
       <c r="G209" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="H209" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11114,13 +11120,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G210" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="H210" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11143,10 +11149,10 @@
         <v>1400</v>
       </c>
       <c r="G211" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="H211" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11166,13 +11172,13 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G212" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="H212" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11192,13 +11198,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G213" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="H213" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11218,13 +11224,13 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G214" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="H214" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11244,7 +11250,7 @@
         <v>1277</v>
       </c>
       <c r="H215" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11267,10 +11273,10 @@
         <v>1336</v>
       </c>
       <c r="G216" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="H216" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11293,10 +11299,10 @@
         <v>1337</v>
       </c>
       <c r="G217" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="H217" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11319,10 +11325,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H218" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11342,13 +11348,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G219" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="H219" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11371,10 +11377,10 @@
         <v>1277</v>
       </c>
       <c r="G220" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="H220" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11397,10 +11403,10 @@
         <v>1395</v>
       </c>
       <c r="G221" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="H221" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11420,13 +11426,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
       <c r="G222" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="H222" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11446,13 +11452,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G223" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="H223" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11472,13 +11478,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G224" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="H224" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11504,7 +11510,7 @@
         <v>952</v>
       </c>
       <c r="H225" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11524,13 +11530,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G226" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="H226" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11550,13 +11556,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G227" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="H227" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11576,13 +11582,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G228" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="H228" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11608,7 +11614,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11628,7 +11634,7 @@
         <v>1275</v>
       </c>
       <c r="H230" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11654,7 +11660,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11674,7 +11680,7 @@
         <v>1284</v>
       </c>
       <c r="H232" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11694,13 +11700,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G233" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="H233" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11720,13 +11726,13 @@
         <v>1293</v>
       </c>
       <c r="F234" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G234" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="H234" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11752,7 +11758,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11775,10 +11781,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="H236" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11798,13 +11804,13 @@
         <v>1314</v>
       </c>
       <c r="F237" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G237" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="H237" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11824,7 +11830,7 @@
         <v>1284</v>
       </c>
       <c r="H238" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11844,13 +11850,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G239" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H239" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11870,13 +11876,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G240" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="H240" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11896,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="H241" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11916,13 +11922,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G242" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="H242" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11942,13 +11948,13 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G243" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="H243" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11968,13 +11974,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="G244" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="H244" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11994,13 +12000,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G245" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="H245" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12023,10 +12029,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="H246" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12046,13 +12052,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G247" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="H247" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12072,13 +12078,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="G248" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="H248" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12098,13 +12104,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G249" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H249" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12127,10 +12133,10 @@
         <v>1413</v>
       </c>
       <c r="G250" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H250" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12150,7 +12156,7 @@
         <v>1275</v>
       </c>
       <c r="H251" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12170,13 +12176,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G252" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="H252" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12196,13 +12202,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G253" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="H253" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12225,10 +12231,10 @@
         <v>1414</v>
       </c>
       <c r="G254" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="H254" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12248,7 +12254,7 @@
         <v>1278</v>
       </c>
       <c r="H255" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12274,7 +12280,7 @@
         <v>952</v>
       </c>
       <c r="H256" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12300,7 +12306,7 @@
         <v>1164</v>
       </c>
       <c r="H257" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12326,7 +12332,7 @@
         <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12352,7 +12358,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12378,7 +12384,7 @@
         <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12398,13 +12404,13 @@
         <v>1278</v>
       </c>
       <c r="F261" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G261" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="H261" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12424,13 +12430,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G262" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H262" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12450,13 +12456,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
       <c r="G263" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H263" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12482,7 +12488,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12502,13 +12508,13 @@
         <v>1278</v>
       </c>
       <c r="F265" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G265" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="H265" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12531,10 +12537,10 @@
         <v>1415</v>
       </c>
       <c r="G266" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="H266" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12554,13 +12560,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1416</v>
+        <v>1370</v>
       </c>
       <c r="G267" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="H267" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12580,13 +12586,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G268" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="H268" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12606,13 +12612,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1342</v>
+        <v>1380</v>
       </c>
       <c r="G269" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="H269" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12632,13 +12638,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G270" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="H270" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12658,13 +12664,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G271" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H271" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12684,13 +12690,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G272" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="H272" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12710,13 +12716,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G273" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="H273" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12736,13 +12742,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G274" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="H274" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12762,7 +12768,7 @@
         <v>1275</v>
       </c>
       <c r="H275" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12788,7 +12794,7 @@
         <v>937</v>
       </c>
       <c r="H276" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12811,10 +12817,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H277" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12834,13 +12840,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G278" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="H278" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12860,13 +12866,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G279" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="H279" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12886,13 +12892,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G280" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="H280" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12915,10 +12921,10 @@
         <v>1275</v>
       </c>
       <c r="G281" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H281" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12938,13 +12944,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G282" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="H282" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12964,13 +12970,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G283" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H283" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12990,13 +12996,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1391</v>
+        <v>1426</v>
       </c>
       <c r="G284" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="H284" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13019,10 +13025,10 @@
         <v>1427</v>
       </c>
       <c r="G285" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="H285" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13042,13 +13048,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1391</v>
+        <v>1428</v>
       </c>
       <c r="G286" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="H286" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13068,13 +13074,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G287" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="H287" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13097,10 +13103,10 @@
         <v>1284</v>
       </c>
       <c r="G288" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H288" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13126,7 +13132,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13146,13 +13152,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G290" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="H290" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13172,13 +13178,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G291" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="H291" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13198,13 +13204,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G292" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="H292" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13224,13 +13230,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G293" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="H293" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13253,10 +13259,10 @@
         <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="H294" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13276,13 +13282,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="G295" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="H295" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13302,7 +13308,7 @@
         <v>1320</v>
       </c>
       <c r="H296" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13322,13 +13328,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G297" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="H297" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13351,10 +13357,10 @@
         <v>1275</v>
       </c>
       <c r="G298" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H298" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13374,13 +13380,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G299" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="H299" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13406,7 +13412,7 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13432,7 +13438,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13455,10 +13461,10 @@
         <v>1395</v>
       </c>
       <c r="G302" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="H302" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13478,13 +13484,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="G303" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="H303" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13504,13 +13510,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G304" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="H304" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13530,13 +13536,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G305" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="H305" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13556,7 +13562,7 @@
         <v>1275</v>
       </c>
       <c r="H306" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13576,7 +13582,7 @@
         <v>1284</v>
       </c>
       <c r="H307" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13596,13 +13602,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G308" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="H308" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13622,13 +13628,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G309" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H309" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13654,7 +13660,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13680,7 +13686,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13700,7 +13706,7 @@
         <v>1275</v>
       </c>
       <c r="H312" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13726,7 +13732,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13746,13 +13752,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G314" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H314" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13778,7 +13784,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13798,13 +13804,13 @@
         <v>1284</v>
       </c>
       <c r="F316" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G316" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="H316" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13824,13 +13830,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G317" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="H317" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13853,10 +13859,10 @@
         <v>1415</v>
       </c>
       <c r="G318" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="H318" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13876,13 +13882,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1342</v>
+        <v>1380</v>
       </c>
       <c r="G319" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="H319" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13908,7 +13914,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13928,13 +13934,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G321" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="H321" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13954,13 +13960,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G322" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="H322" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13983,10 +13989,10 @@
         <v>1342</v>
       </c>
       <c r="G323" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="H323" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14009,10 +14015,10 @@
         <v>1337</v>
       </c>
       <c r="G324" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H324" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14032,7 +14038,7 @@
         <v>1284</v>
       </c>
       <c r="H325" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14052,13 +14058,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G326" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="H326" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14078,13 +14084,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G327" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="H327" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14104,13 +14110,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G328" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H328" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14130,7 +14136,7 @@
         <v>1309</v>
       </c>
       <c r="H329" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14150,13 +14156,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G330" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H330" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14182,7 +14188,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14208,7 +14214,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14231,10 +14237,10 @@
         <v>1277</v>
       </c>
       <c r="G333" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="H333" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14254,13 +14260,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G334" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="H334" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14280,13 +14286,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G335" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="H335" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14306,13 +14312,13 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G336" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="H336" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14332,13 +14338,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G337" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="H337" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14358,13 +14364,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G338" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H338" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14390,7 +14396,7 @@
         <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14413,10 +14419,10 @@
         <v>1284</v>
       </c>
       <c r="G340" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="H340" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14436,13 +14442,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G341" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="H341" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14462,13 +14468,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G342" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="H342" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14488,13 +14494,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1370</v>
+        <v>1395</v>
       </c>
       <c r="G343" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="H343" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14514,13 +14520,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G344" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="H344" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14540,13 +14546,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G345" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="H345" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14566,7 +14572,7 @@
         <v>1275</v>
       </c>
       <c r="H346" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14586,13 +14592,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G347" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="H347" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14612,13 +14618,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G348" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H348" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14641,10 +14647,10 @@
         <v>1415</v>
       </c>
       <c r="G349" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="H349" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14664,13 +14670,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G350" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="H350" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14690,13 +14696,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G351" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="H351" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14716,13 +14722,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G352" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="H352" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14742,13 +14748,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G353" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="H353" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14768,7 +14774,7 @@
         <v>1275</v>
       </c>
       <c r="H354" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14788,13 +14794,13 @@
         <v>1297</v>
       </c>
       <c r="F355" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G355" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="H355" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14814,13 +14820,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1342</v>
+        <v>1380</v>
       </c>
       <c r="G356" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H356" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14840,13 +14846,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G357" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="H357" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14866,7 +14872,7 @@
         <v>1321</v>
       </c>
       <c r="H358" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14886,13 +14892,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G359" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="H359" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14912,13 +14918,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G360" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="H360" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14938,13 +14944,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G361" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="H361" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14964,13 +14970,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G362" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="H362" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14993,10 +14999,10 @@
         <v>1284</v>
       </c>
       <c r="G363" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="H363" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15016,13 +15022,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="G364" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="H364" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15045,10 +15051,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="H365" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15068,13 +15074,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G366" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="H366" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15094,13 +15100,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G367" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="H367" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15120,13 +15126,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G368" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="H368" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15146,13 +15152,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G369" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="H369" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15175,10 +15181,10 @@
         <v>1293</v>
       </c>
       <c r="G370" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="H370" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15201,10 +15207,10 @@
         <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="H371" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15224,13 +15230,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G372" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="H372" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15250,13 +15256,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="G373" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="H373" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15276,13 +15282,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G374" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="H374" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15305,10 +15311,10 @@
         <v>1277</v>
       </c>
       <c r="G375" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="H375" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15328,7 +15334,7 @@
         <v>1284</v>
       </c>
       <c r="H376" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15351,10 +15357,10 @@
         <v>1284</v>
       </c>
       <c r="G377" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="H377" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15374,7 +15380,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15397,10 +15403,10 @@
         <v>1284</v>
       </c>
       <c r="G379" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="H379" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15420,13 +15426,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G380" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="H380" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15446,13 +15452,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G381" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="H381" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15472,7 +15478,7 @@
         <v>1284</v>
       </c>
       <c r="H382" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15492,13 +15498,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G383" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="H383" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15524,7 +15530,7 @@
         <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15544,13 +15550,13 @@
         <v>1321</v>
       </c>
       <c r="F385" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G385" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="H385" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15570,13 +15576,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G386" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="H386" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15596,13 +15602,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G387" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="H387" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15622,13 +15628,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G388" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="H388" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15648,13 +15654,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G389" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H389" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15674,13 +15680,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G390" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="H390" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15706,7 +15712,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15726,13 +15732,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G392" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="H392" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15752,13 +15758,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G393" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="H393" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15778,13 +15784,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G394" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H394" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15810,7 +15816,7 @@
         <v>972</v>
       </c>
       <c r="H395" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15833,10 +15839,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H396" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15859,10 +15865,10 @@
         <v>1342</v>
       </c>
       <c r="G397" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="H397" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15882,13 +15888,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G398" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="H398" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15908,13 +15914,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G399" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="H399" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15934,13 +15940,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G400" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="H400" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15960,13 +15966,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G401" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="H401" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15992,7 +15998,7 @@
         <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16018,7 +16024,7 @@
         <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16038,13 +16044,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G404" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="H404" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16067,10 +16073,10 @@
         <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="H405" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16096,7 +16102,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16119,10 +16125,10 @@
         <v>1284</v>
       </c>
       <c r="G407" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="H407" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16145,10 +16151,10 @@
         <v>1277</v>
       </c>
       <c r="G408" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="H408" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16168,13 +16174,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G409" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H409" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16194,13 +16200,13 @@
         <v>1284</v>
       </c>
       <c r="F410" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G410" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H410" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16220,13 +16226,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G411" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="H411" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16249,10 +16255,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="H412" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16272,13 +16278,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1416</v>
+        <v>1461</v>
       </c>
       <c r="G413" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="H413" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16298,7 +16304,7 @@
         <v>1284</v>
       </c>
       <c r="H414" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16318,13 +16324,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="G415" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="H415" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16344,13 +16350,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H416" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16370,13 +16376,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G417" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H417" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16396,7 +16402,7 @@
         <v>1284</v>
       </c>
       <c r="H418" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16416,13 +16422,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G419" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="H419" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16442,13 +16448,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G420" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="H420" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16471,10 +16477,10 @@
         <v>1336</v>
       </c>
       <c r="G421" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="H421" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16497,10 +16503,10 @@
         <v>1337</v>
       </c>
       <c r="G422" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="H422" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16520,13 +16526,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G423" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H423" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16546,7 +16552,7 @@
         <v>1284</v>
       </c>
       <c r="H424" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16566,13 +16572,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1461</v>
+        <v>1387</v>
       </c>
       <c r="G425" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="H425" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16592,13 +16598,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G426" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H426" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16624,7 +16630,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16644,7 +16650,7 @@
         <v>1284</v>
       </c>
       <c r="H428" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16670,7 +16676,7 @@
         <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16693,10 +16699,10 @@
         <v>1343</v>
       </c>
       <c r="G430" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="H430" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16719,10 +16725,10 @@
         <v>1284</v>
       </c>
       <c r="G431" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="H431" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16742,13 +16748,13 @@
         <v>1278</v>
       </c>
       <c r="F432" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G432" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="H432" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16768,13 +16774,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G433" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="H433" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16794,13 +16800,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G434" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="H434" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16823,10 +16829,10 @@
         <v>1284</v>
       </c>
       <c r="G435" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="H435" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16846,13 +16852,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G436" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="H436" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16872,13 +16878,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G437" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="H437" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16901,10 +16907,10 @@
         <v>1337</v>
       </c>
       <c r="G438" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="H438" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16924,13 +16930,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G439" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="H439" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16956,7 +16962,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16979,10 +16985,10 @@
         <v>1343</v>
       </c>
       <c r="G441" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="H441" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17002,13 +17008,13 @@
         <v>1284</v>
       </c>
       <c r="F442" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G442" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="H442" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17031,10 +17037,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="H443" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17057,10 +17063,10 @@
         <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="H444" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17080,13 +17086,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1353</v>
+        <v>1381</v>
       </c>
       <c r="G445" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="H445" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17109,10 +17115,10 @@
         <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="H446" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17132,13 +17138,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G447" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="H447" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17158,13 +17164,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G448" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H448" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17184,13 +17190,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G449" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H449" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17210,13 +17216,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G450" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="H450" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17236,7 +17242,7 @@
         <v>1321</v>
       </c>
       <c r="H451" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17256,13 +17262,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="G452" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="H452" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17285,10 +17291,10 @@
         <v>1275</v>
       </c>
       <c r="G453" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="H453" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17308,13 +17314,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="G454" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="H454" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17334,13 +17340,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="G455" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="H455" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17360,13 +17366,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="G456" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="H456" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17386,13 +17392,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="G457" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="H457" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17412,13 +17418,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="G458" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="H458" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17438,13 +17444,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G459" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="H459" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17464,13 +17470,13 @@
         <v>1334</v>
       </c>
       <c r="F460" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G460" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H460" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17490,13 +17496,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="G461" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="H461" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17522,7 +17528,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17542,13 +17548,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G463" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="H463" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17574,7 +17580,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17594,13 +17600,13 @@
         <v>1335</v>
       </c>
       <c r="F465" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G465" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H465" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
   </sheetData>
